--- a/Code/Results/Cases/Case_0_136/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_136/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9898524609358595</v>
+        <v>1.019492762824138</v>
       </c>
       <c r="D2">
-        <v>0.9986274015552902</v>
+        <v>1.021393178369514</v>
       </c>
       <c r="E2">
-        <v>0.9977222570398556</v>
+        <v>1.020624304830882</v>
       </c>
       <c r="F2">
-        <v>0.9984150516672142</v>
+        <v>1.030775761595389</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039991540301583</v>
+        <v>1.029441138464657</v>
       </c>
       <c r="J2">
-        <v>1.012340978052734</v>
+        <v>1.024695219552408</v>
       </c>
       <c r="K2">
-        <v>1.010105892034322</v>
+        <v>1.024230641327941</v>
       </c>
       <c r="L2">
-        <v>1.009213415915223</v>
+        <v>1.02346403984532</v>
       </c>
       <c r="M2">
-        <v>1.009896511589753</v>
+        <v>1.033585795494001</v>
       </c>
       <c r="N2">
-        <v>1.008105302946823</v>
+        <v>1.012311820580684</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9938099958338839</v>
+        <v>1.020332698529388</v>
       </c>
       <c r="D3">
-        <v>1.001765845692567</v>
+        <v>1.022106664197465</v>
       </c>
       <c r="E3">
-        <v>1.000828914381221</v>
+        <v>1.021333856843096</v>
       </c>
       <c r="F3">
-        <v>1.00316391441984</v>
+        <v>1.031848139781905</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040756246986915</v>
+        <v>1.029539744899054</v>
       </c>
       <c r="J3">
-        <v>1.014470840879305</v>
+        <v>1.02517250677231</v>
       </c>
       <c r="K3">
-        <v>1.012376181945495</v>
+        <v>1.02475082503839</v>
       </c>
       <c r="L3">
-        <v>1.01145120006894</v>
+        <v>1.023980136191531</v>
       </c>
       <c r="M3">
-        <v>1.013756471808185</v>
+        <v>1.034465890600347</v>
       </c>
       <c r="N3">
-        <v>1.008821878109416</v>
+        <v>1.012471120091427</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9963221879361123</v>
+        <v>1.020876708629403</v>
       </c>
       <c r="D4">
-        <v>1.003763529313297</v>
+        <v>1.022569114425624</v>
       </c>
       <c r="E4">
-        <v>1.002807074298459</v>
+        <v>1.021793825751776</v>
       </c>
       <c r="F4">
-        <v>1.006178029225518</v>
+        <v>1.032542672403855</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041230220483477</v>
+        <v>1.029602199551522</v>
       </c>
       <c r="J4">
-        <v>1.015820442714919</v>
+        <v>1.025481226512583</v>
       </c>
       <c r="K4">
-        <v>1.013816743088686</v>
+        <v>1.025087525795704</v>
       </c>
       <c r="L4">
-        <v>1.012871738060367</v>
+        <v>1.024314255369686</v>
       </c>
       <c r="M4">
-        <v>1.016202458383641</v>
+        <v>1.035035411886203</v>
       </c>
       <c r="N4">
-        <v>1.009275769451328</v>
+        <v>1.012574115757298</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9973670519918982</v>
+        <v>1.021105532474409</v>
       </c>
       <c r="D5">
-        <v>1.004595669460031</v>
+        <v>1.0227637129182</v>
       </c>
       <c r="E5">
-        <v>1.003631249723654</v>
+        <v>1.021987396433201</v>
       </c>
       <c r="F5">
-        <v>1.007431598348143</v>
+        <v>1.032834804370152</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041424570563563</v>
+        <v>1.029628131659726</v>
       </c>
       <c r="J5">
-        <v>1.016381161072851</v>
+        <v>1.025610983162145</v>
       </c>
       <c r="K5">
-        <v>1.014415726935939</v>
+        <v>1.025229099209609</v>
       </c>
       <c r="L5">
-        <v>1.013462540004542</v>
+        <v>1.024454758617546</v>
       </c>
       <c r="M5">
-        <v>1.017218779094677</v>
+        <v>1.035274847496945</v>
       </c>
       <c r="N5">
-        <v>1.009464303870489</v>
+        <v>1.012617395143297</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9975418394107866</v>
+        <v>1.021143960117676</v>
       </c>
       <c r="D6">
-        <v>1.004734945468953</v>
+        <v>1.022796397627826</v>
       </c>
       <c r="E6">
-        <v>1.003769202476293</v>
+        <v>1.022019909467642</v>
       </c>
       <c r="F6">
-        <v>1.007641296547497</v>
+        <v>1.032883863409123</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04145691725916</v>
+        <v>1.029632466769056</v>
       </c>
       <c r="J6">
-        <v>1.016474923123493</v>
+        <v>1.025632768133901</v>
       </c>
       <c r="K6">
-        <v>1.014515915576089</v>
+        <v>1.025252871404783</v>
       </c>
       <c r="L6">
-        <v>1.013561368527085</v>
+        <v>1.024478352014208</v>
       </c>
       <c r="M6">
-        <v>1.017388732951902</v>
+        <v>1.035315050282284</v>
       </c>
       <c r="N6">
-        <v>1.009495827534351</v>
+        <v>1.012624660758199</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9963361932287038</v>
+        <v>1.020879765707223</v>
       </c>
       <c r="D7">
-        <v>1.003774678303074</v>
+        <v>1.022571713937644</v>
       </c>
       <c r="E7">
-        <v>1.002818115917247</v>
+        <v>1.021796411469894</v>
       </c>
       <c r="F7">
-        <v>1.006194832142685</v>
+        <v>1.032546575295442</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041232836579876</v>
+        <v>1.029602547330743</v>
       </c>
       <c r="J7">
-        <v>1.015827960970211</v>
+        <v>1.025482960443148</v>
       </c>
       <c r="K7">
-        <v>1.013824772541383</v>
+        <v>1.025089417412197</v>
       </c>
       <c r="L7">
-        <v>1.012879657267181</v>
+        <v>1.024316132627124</v>
       </c>
       <c r="M7">
-        <v>1.016216085040476</v>
+        <v>1.035038611202894</v>
       </c>
       <c r="N7">
-        <v>1.009278297544509</v>
+        <v>1.01257469413765</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9912002208276323</v>
+        <v>1.019776515428744</v>
       </c>
       <c r="D8">
-        <v>0.9996950536179822</v>
+        <v>1.021634142336088</v>
       </c>
       <c r="E8">
-        <v>0.9987789459983085</v>
+        <v>1.020863926059805</v>
       </c>
       <c r="F8">
-        <v>1.000032413844085</v>
+        <v>1.031138045372497</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040254342528291</v>
+        <v>1.029474742222185</v>
       </c>
       <c r="J8">
-        <v>1.013066802289483</v>
+        <v>1.024856544558189</v>
       </c>
       <c r="K8">
-        <v>1.010879157180862</v>
+        <v>1.02440641693228</v>
       </c>
       <c r="L8">
-        <v>1.009975482679741</v>
+        <v>1.023638421013014</v>
       </c>
       <c r="M8">
-        <v>1.011211946081238</v>
+        <v>1.033883218726876</v>
       </c>
       <c r="N8">
-        <v>1.008349535072594</v>
+        <v>1.01236567327712</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9817601379707932</v>
+        <v>1.017836458663807</v>
       </c>
       <c r="D9">
-        <v>0.9922414956824794</v>
+        <v>1.019988046289175</v>
       </c>
       <c r="E9">
-        <v>0.9914050091876456</v>
+        <v>1.019227284317939</v>
       </c>
       <c r="F9">
-        <v>0.9887003670106509</v>
+        <v>1.028660917661355</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038366601756114</v>
+        <v>1.029239216401485</v>
       </c>
       <c r="J9">
-        <v>1.007973852534114</v>
+        <v>1.023751872947269</v>
       </c>
       <c r="K9">
-        <v>1.005461716035062</v>
+        <v>1.023203757369157</v>
       </c>
       <c r="L9">
-        <v>1.004639090536334</v>
+        <v>1.022445565504003</v>
       </c>
       <c r="M9">
-        <v>1.001979472449696</v>
+        <v>1.031847623816531</v>
       </c>
       <c r="N9">
-        <v>1.006635185940459</v>
+        <v>1.011996743917428</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9751785360546799</v>
+        <v>1.01654586848018</v>
       </c>
       <c r="D10">
-        <v>0.9870778908817384</v>
+        <v>1.018894797412809</v>
       </c>
       <c r="E10">
-        <v>0.9863005907135164</v>
+        <v>1.01814066992757</v>
       </c>
       <c r="F10">
-        <v>0.9807928577836001</v>
+        <v>1.027012833600084</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036992400714958</v>
+        <v>1.029075295992941</v>
       </c>
       <c r="J10">
-        <v>1.004412784797461</v>
+        <v>1.023014922111244</v>
       </c>
       <c r="K10">
-        <v>1.00168444450616</v>
+        <v>1.022402645143613</v>
       </c>
       <c r="L10">
-        <v>1.000921677360529</v>
+        <v>1.021651315319635</v>
       </c>
       <c r="M10">
-        <v>0.9955177843038505</v>
+        <v>1.030490852594618</v>
       </c>
       <c r="N10">
-        <v>1.005435802464546</v>
+        <v>1.011750406958414</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9722539983029789</v>
+        <v>1.015987705842455</v>
       </c>
       <c r="D11">
-        <v>0.9847918803339759</v>
+        <v>1.018422413106312</v>
       </c>
       <c r="E11">
-        <v>0.9840417790514872</v>
+        <v>1.017671237300681</v>
       </c>
       <c r="F11">
-        <v>0.977276739085545</v>
+        <v>1.026299996300818</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036368515996829</v>
+        <v>1.02900268624977</v>
       </c>
       <c r="J11">
-        <v>1.002828397811391</v>
+        <v>1.022695708810437</v>
       </c>
       <c r="K11">
-        <v>1.000006413705499</v>
+        <v>1.022055926725105</v>
       </c>
       <c r="L11">
-        <v>0.9992710523089883</v>
+        <v>1.021307645644763</v>
       </c>
       <c r="M11">
-        <v>0.9926402939364494</v>
+        <v>1.029903435844896</v>
       </c>
       <c r="N11">
-        <v>1.004902047310028</v>
+        <v>1.011643654415615</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9711559044111432</v>
+        <v>1.015780481651771</v>
       </c>
       <c r="D12">
-        <v>0.9839348606560343</v>
+        <v>1.018247100390436</v>
       </c>
       <c r="E12">
-        <v>0.9831951095727809</v>
+        <v>1.017497032844703</v>
       </c>
       <c r="F12">
-        <v>0.9759560848578664</v>
+        <v>1.026035336845664</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036132315165111</v>
+        <v>1.028975471235324</v>
       </c>
       <c r="J12">
-        <v>1.002233230340923</v>
+        <v>1.022577123546558</v>
       </c>
       <c r="K12">
-        <v>0.9993764541086598</v>
+        <v>1.021927166598598</v>
       </c>
       <c r="L12">
-        <v>0.9986515054515097</v>
+        <v>1.021180029599739</v>
       </c>
       <c r="M12">
-        <v>0.9915588952451262</v>
+        <v>1.029685255065002</v>
       </c>
       <c r="N12">
-        <v>1.004701528766524</v>
+        <v>1.011603989107354</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.971391992433291</v>
+        <v>1.015824927294046</v>
       </c>
       <c r="D13">
-        <v>0.9841190575336607</v>
+        <v>1.018284698665032</v>
       </c>
       <c r="E13">
-        <v>0.9833770749146251</v>
+        <v>1.017534392856111</v>
       </c>
       <c r="F13">
-        <v>0.9762400438443213</v>
+        <v>1.026092101751943</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036183185128545</v>
+        <v>1.028981320004885</v>
       </c>
       <c r="J13">
-        <v>1.002361201695843</v>
+        <v>1.022602561159728</v>
       </c>
       <c r="K13">
-        <v>0.9995118889607598</v>
+        <v>1.021954784862593</v>
       </c>
       <c r="L13">
-        <v>0.9987846960279489</v>
+        <v>1.021207401927393</v>
       </c>
       <c r="M13">
-        <v>0.991791438226538</v>
+        <v>1.029732055028749</v>
       </c>
       <c r="N13">
-        <v>1.004744644410755</v>
+        <v>1.011612498016937</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9721634734855467</v>
+        <v>1.015970574531979</v>
       </c>
       <c r="D14">
-        <v>0.9847212020139728</v>
+        <v>1.01840791859528</v>
       </c>
       <c r="E14">
-        <v>0.9839719511684359</v>
+        <v>1.017656834156402</v>
       </c>
       <c r="F14">
-        <v>0.9771678761116201</v>
+        <v>1.026278117014092</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036349083363971</v>
+        <v>1.029000441633281</v>
       </c>
       <c r="J14">
-        <v>1.002779338550899</v>
+        <v>1.022685906819858</v>
       </c>
       <c r="K14">
-        <v>0.99995447872091</v>
+        <v>1.022045282824577</v>
       </c>
       <c r="L14">
-        <v>0.9992199732327034</v>
+        <v>1.021297096076817</v>
       </c>
       <c r="M14">
-        <v>0.9925511653627905</v>
+        <v>1.029885400704938</v>
       </c>
       <c r="N14">
-        <v>1.004885519005588</v>
+        <v>1.011640375924753</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9726372283107951</v>
+        <v>1.016060326195001</v>
       </c>
       <c r="D15">
-        <v>0.9850911459455957</v>
+        <v>1.018483858632054</v>
       </c>
       <c r="E15">
-        <v>0.9843374500312987</v>
+        <v>1.017732296027673</v>
       </c>
       <c r="F15">
-        <v>0.9777375840774003</v>
+        <v>1.026392743088237</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036450703463373</v>
+        <v>1.029012190713993</v>
       </c>
       <c r="J15">
-        <v>1.003036075787734</v>
+        <v>1.02273725684657</v>
       </c>
       <c r="K15">
-        <v>1.000226280911601</v>
+        <v>1.02210104515802</v>
       </c>
       <c r="L15">
-        <v>0.9994873010955145</v>
+        <v>1.021352364697793</v>
       </c>
       <c r="M15">
-        <v>0.9930175732953944</v>
+        <v>1.029979883645826</v>
       </c>
       <c r="N15">
-        <v>1.004972014402686</v>
+        <v>1.011657550758497</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.975371006866312</v>
+        <v>1.016582926161054</v>
       </c>
       <c r="D16">
-        <v>0.9872285192375818</v>
+        <v>1.018926169207082</v>
       </c>
       <c r="E16">
-        <v>0.9864494480119506</v>
+        <v>1.018171847492733</v>
       </c>
       <c r="F16">
-        <v>0.981024205555751</v>
+        <v>1.027060159057808</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037033187358091</v>
+        <v>1.029080080542206</v>
       </c>
       <c r="J16">
-        <v>1.00451701788922</v>
+        <v>1.023036105050227</v>
       </c>
       <c r="K16">
-        <v>1.001794891478196</v>
+        <v>1.022425659356819</v>
       </c>
       <c r="L16">
-        <v>1.001030337635376</v>
+        <v>1.021674128829969</v>
       </c>
       <c r="M16">
-        <v>0.9957070260526895</v>
+        <v>1.030529839141399</v>
       </c>
       <c r="N16">
-        <v>1.005470914580335</v>
+        <v>1.01175748997501</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9770654517330148</v>
+        <v>1.016910920054279</v>
       </c>
       <c r="D17">
-        <v>0.9885555661240509</v>
+        <v>1.019203887757633</v>
       </c>
       <c r="E17">
-        <v>0.9877610059247984</v>
+        <v>1.018447856465593</v>
       </c>
       <c r="F17">
-        <v>0.9830606260528659</v>
+        <v>1.027479024575189</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037390753064354</v>
+        <v>1.029122229717063</v>
       </c>
       <c r="J17">
-        <v>1.005434422669359</v>
+        <v>1.023223536303456</v>
       </c>
       <c r="K17">
-        <v>1.002767278070221</v>
+        <v>1.02262932723283</v>
       </c>
       <c r="L17">
-        <v>1.001987086953173</v>
+        <v>1.021876029672101</v>
       </c>
       <c r="M17">
-        <v>0.9973723290497548</v>
+        <v>1.030874832119586</v>
       </c>
       <c r="N17">
-        <v>1.005779938890941</v>
+        <v>1.011820156200225</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.978046629707263</v>
+        <v>1.017102298032703</v>
       </c>
       <c r="D18">
-        <v>0.9893247983008608</v>
+        <v>1.019365972632215</v>
       </c>
       <c r="E18">
-        <v>0.9885213543982948</v>
+        <v>1.018608951784113</v>
       </c>
       <c r="F18">
-        <v>0.9842396027830663</v>
+        <v>1.027723418299913</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037596540927449</v>
+        <v>1.029146657201864</v>
       </c>
       <c r="J18">
-        <v>1.005965456322633</v>
+        <v>1.023332851217948</v>
       </c>
       <c r="K18">
-        <v>1.003330379484278</v>
+        <v>1.022748139431337</v>
       </c>
       <c r="L18">
-        <v>1.002541210164713</v>
+        <v>1.021993818660379</v>
       </c>
       <c r="M18">
-        <v>0.9983360420995874</v>
+        <v>1.03107606778565</v>
       </c>
       <c r="N18">
-        <v>1.005958803337689</v>
+        <v>1.011856699925974</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9783799878779815</v>
+        <v>1.017167563907919</v>
       </c>
       <c r="D19">
-        <v>0.9895862810368468</v>
+        <v>1.019421255676668</v>
       </c>
       <c r="E19">
-        <v>0.9887798332609501</v>
+        <v>1.018663898705973</v>
       </c>
       <c r="F19">
-        <v>0.9846401277486189</v>
+        <v>1.027806763206029</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037666242484382</v>
+        <v>1.029154959626197</v>
       </c>
       <c r="J19">
-        <v>1.006145842498357</v>
+        <v>1.023370122953334</v>
       </c>
       <c r="K19">
-        <v>1.003521699706216</v>
+        <v>1.022788654026526</v>
       </c>
       <c r="L19">
-        <v>1.002729492983073</v>
+        <v>1.02203398563422</v>
       </c>
       <c r="M19">
-        <v>0.9986633673383623</v>
+        <v>1.031144685126663</v>
       </c>
       <c r="N19">
-        <v>1.006019559420598</v>
+        <v>1.011869158950812</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9768843987699092</v>
+        <v>1.016875722712424</v>
       </c>
       <c r="D20">
-        <v>0.9884136868022417</v>
+        <v>1.019174081208304</v>
       </c>
       <c r="E20">
-        <v>0.9876207727509977</v>
+        <v>1.018418232550313</v>
       </c>
       <c r="F20">
-        <v>0.9828430564434502</v>
+        <v>1.027434076345193</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037352677493874</v>
+        <v>1.029117723787882</v>
       </c>
       <c r="J20">
-        <v>1.005336417094989</v>
+        <v>1.023203427788567</v>
       </c>
       <c r="K20">
-        <v>1.002663373729123</v>
+        <v>1.022607473915627</v>
       </c>
       <c r="L20">
-        <v>1.001884845510144</v>
+        <v>1.021854365168115</v>
       </c>
       <c r="M20">
-        <v>0.9971944513612616</v>
+        <v>1.030837816897803</v>
       </c>
       <c r="N20">
-        <v>1.005746927331965</v>
+        <v>1.011813433575598</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9719366218076712</v>
+        <v>1.015927682216371</v>
       </c>
       <c r="D21">
-        <v>0.984544106387312</v>
+        <v>1.018371629191926</v>
       </c>
       <c r="E21">
-        <v>0.9837969889308564</v>
+        <v>1.017620773712202</v>
       </c>
       <c r="F21">
-        <v>0.976895062443578</v>
+        <v>1.026223336835322</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036300354723295</v>
+        <v>1.02899481753604</v>
       </c>
       <c r="J21">
-        <v>1.002656393754132</v>
+        <v>1.022661364011875</v>
       </c>
       <c r="K21">
-        <v>0.9998243334300378</v>
+        <v>1.022018632688159</v>
       </c>
       <c r="L21">
-        <v>0.9990919747933903</v>
+        <v>1.021270682321709</v>
       </c>
       <c r="M21">
-        <v>0.9923277968710285</v>
+        <v>1.029840243888728</v>
       </c>
       <c r="N21">
-        <v>1.004844098056763</v>
+        <v>1.01163216692193</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.968757231175334</v>
+        <v>1.015332203893727</v>
       </c>
       <c r="D22">
-        <v>0.9820652823855842</v>
+        <v>1.017867975127725</v>
       </c>
       <c r="E22">
-        <v>0.9813483962282528</v>
+        <v>1.017120327770418</v>
       </c>
       <c r="F22">
-        <v>0.9730703645642389</v>
+        <v>1.02546279184885</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035612830376021</v>
+        <v>1.028916127028716</v>
       </c>
       <c r="J22">
-        <v>1.000932696246814</v>
+        <v>1.022320459425085</v>
       </c>
       <c r="K22">
-        <v>0.9980006032355819</v>
+        <v>1.021648558946075</v>
       </c>
       <c r="L22">
-        <v>0.9972986267594594</v>
+        <v>1.020903919221743</v>
       </c>
       <c r="M22">
-        <v>0.9891948688307948</v>
+        <v>1.029213099723413</v>
       </c>
       <c r="N22">
-        <v>1.004263338465431</v>
+        <v>1.011518124334923</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.970449383183302</v>
+        <v>1.015647821605052</v>
       </c>
       <c r="D23">
-        <v>0.983383827917003</v>
+        <v>1.018134887769414</v>
       </c>
       <c r="E23">
-        <v>0.9826507753448418</v>
+        <v>1.017385533205783</v>
       </c>
       <c r="F23">
-        <v>0.9751062343139058</v>
+        <v>1.025865904999657</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035979799000013</v>
+        <v>1.028957976251964</v>
       </c>
       <c r="J23">
-        <v>1.001850224535206</v>
+        <v>1.022501187329482</v>
       </c>
       <c r="K23">
-        <v>0.9989711673110143</v>
+        <v>1.021844727023283</v>
       </c>
       <c r="L23">
-        <v>0.9982529529659141</v>
+        <v>1.021098325876821</v>
       </c>
       <c r="M23">
-        <v>0.9908628381150111</v>
+        <v>1.02954555384244</v>
       </c>
       <c r="N23">
-        <v>1.004572485742605</v>
+        <v>1.011578587254647</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9769662309050499</v>
+        <v>1.016891626676421</v>
       </c>
       <c r="D24">
-        <v>0.9884778108048076</v>
+        <v>1.019187549207456</v>
       </c>
       <c r="E24">
-        <v>0.9876841524651089</v>
+        <v>1.018431618001486</v>
       </c>
       <c r="F24">
-        <v>0.9829413940248783</v>
+        <v>1.027454386279009</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037369890768877</v>
+        <v>1.029119760309767</v>
       </c>
       <c r="J24">
-        <v>1.005380714162007</v>
+        <v>1.023212513993649</v>
       </c>
       <c r="K24">
-        <v>1.002710336201431</v>
+        <v>1.022617348439177</v>
       </c>
       <c r="L24">
-        <v>1.001931056149955</v>
+        <v>1.021864154352019</v>
       </c>
       <c r="M24">
-        <v>0.9972748501658818</v>
+        <v>1.030854542461306</v>
       </c>
       <c r="N24">
-        <v>1.005761848105455</v>
+        <v>1.011816471266368</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9842494160920183</v>
+        <v>1.01833752583675</v>
       </c>
       <c r="D25">
-        <v>0.9942014400805036</v>
+        <v>1.020412877516959</v>
       </c>
       <c r="E25">
-        <v>0.993343332392692</v>
+        <v>1.019649613001743</v>
       </c>
       <c r="F25">
-        <v>0.9916894761061267</v>
+        <v>1.029300730664936</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038874576406347</v>
+        <v>1.029301324646869</v>
       </c>
       <c r="J25">
-        <v>1.009318730707255</v>
+        <v>1.024037550558034</v>
       </c>
       <c r="K25">
-        <v>1.006890443132158</v>
+        <v>1.023514562546928</v>
       </c>
       <c r="L25">
-        <v>1.00604587102558</v>
+        <v>1.022753778661254</v>
       </c>
       <c r="M25">
-        <v>1.00441818690133</v>
+        <v>1.03237382637433</v>
       </c>
       <c r="N25">
-        <v>1.00708801799545</v>
+        <v>1.012092190495369</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_136/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_136/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.019492762824138</v>
+        <v>0.9898524609358591</v>
       </c>
       <c r="D2">
-        <v>1.021393178369514</v>
+        <v>0.9986274015552898</v>
       </c>
       <c r="E2">
-        <v>1.020624304830882</v>
+        <v>0.9977222570398554</v>
       </c>
       <c r="F2">
-        <v>1.030775761595389</v>
+        <v>0.9984150516672138</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029441138464657</v>
+        <v>1.039991540301583</v>
       </c>
       <c r="J2">
-        <v>1.024695219552408</v>
+        <v>1.012340978052734</v>
       </c>
       <c r="K2">
-        <v>1.024230641327941</v>
+        <v>1.010105892034322</v>
       </c>
       <c r="L2">
-        <v>1.02346403984532</v>
+        <v>1.009213415915223</v>
       </c>
       <c r="M2">
-        <v>1.033585795494001</v>
+        <v>1.009896511589752</v>
       </c>
       <c r="N2">
-        <v>1.012311820580684</v>
+        <v>1.008105302946823</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.020332698529388</v>
+        <v>0.9938099958338833</v>
       </c>
       <c r="D3">
-        <v>1.022106664197465</v>
+        <v>1.001765845692567</v>
       </c>
       <c r="E3">
-        <v>1.021333856843096</v>
+        <v>1.000828914381221</v>
       </c>
       <c r="F3">
-        <v>1.031848139781905</v>
+        <v>1.003163914419839</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029539744899054</v>
+        <v>1.040756246986914</v>
       </c>
       <c r="J3">
-        <v>1.02517250677231</v>
+        <v>1.014470840879305</v>
       </c>
       <c r="K3">
-        <v>1.02475082503839</v>
+        <v>1.012376181945495</v>
       </c>
       <c r="L3">
-        <v>1.023980136191531</v>
+        <v>1.01145120006894</v>
       </c>
       <c r="M3">
-        <v>1.034465890600347</v>
+        <v>1.013756471808184</v>
       </c>
       <c r="N3">
-        <v>1.012471120091427</v>
+        <v>1.008821878109416</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.020876708629403</v>
+        <v>0.9963221879361123</v>
       </c>
       <c r="D4">
-        <v>1.022569114425624</v>
+        <v>1.003763529313297</v>
       </c>
       <c r="E4">
-        <v>1.021793825751776</v>
+        <v>1.00280707429846</v>
       </c>
       <c r="F4">
-        <v>1.032542672403855</v>
+        <v>1.006178029225518</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.029602199551522</v>
+        <v>1.041230220483477</v>
       </c>
       <c r="J4">
-        <v>1.025481226512583</v>
+        <v>1.015820442714919</v>
       </c>
       <c r="K4">
-        <v>1.025087525795704</v>
+        <v>1.013816743088686</v>
       </c>
       <c r="L4">
-        <v>1.024314255369686</v>
+        <v>1.012871738060367</v>
       </c>
       <c r="M4">
-        <v>1.035035411886203</v>
+        <v>1.016202458383641</v>
       </c>
       <c r="N4">
-        <v>1.012574115757298</v>
+        <v>1.009275769451328</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.021105532474409</v>
+        <v>0.9973670519918982</v>
       </c>
       <c r="D5">
-        <v>1.0227637129182</v>
+        <v>1.004595669460031</v>
       </c>
       <c r="E5">
-        <v>1.021987396433201</v>
+        <v>1.003631249723654</v>
       </c>
       <c r="F5">
-        <v>1.032834804370152</v>
+        <v>1.007431598348143</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.029628131659726</v>
+        <v>1.041424570563563</v>
       </c>
       <c r="J5">
-        <v>1.025610983162145</v>
+        <v>1.016381161072851</v>
       </c>
       <c r="K5">
-        <v>1.025229099209609</v>
+        <v>1.014415726935939</v>
       </c>
       <c r="L5">
-        <v>1.024454758617546</v>
+        <v>1.013462540004542</v>
       </c>
       <c r="M5">
-        <v>1.035274847496945</v>
+        <v>1.017218779094677</v>
       </c>
       <c r="N5">
-        <v>1.012617395143297</v>
+        <v>1.009464303870489</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021143960117676</v>
+        <v>0.9975418394107862</v>
       </c>
       <c r="D6">
-        <v>1.022796397627826</v>
+        <v>1.004734945468953</v>
       </c>
       <c r="E6">
-        <v>1.022019909467642</v>
+        <v>1.003769202476293</v>
       </c>
       <c r="F6">
-        <v>1.032883863409123</v>
+        <v>1.007641296547497</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.029632466769056</v>
+        <v>1.04145691725916</v>
       </c>
       <c r="J6">
-        <v>1.025632768133901</v>
+        <v>1.016474923123493</v>
       </c>
       <c r="K6">
-        <v>1.025252871404783</v>
+        <v>1.014515915576089</v>
       </c>
       <c r="L6">
-        <v>1.024478352014208</v>
+        <v>1.013561368527085</v>
       </c>
       <c r="M6">
-        <v>1.035315050282284</v>
+        <v>1.017388732951901</v>
       </c>
       <c r="N6">
-        <v>1.012624660758199</v>
+        <v>1.009495827534351</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.020879765707223</v>
+        <v>0.9963361932287036</v>
       </c>
       <c r="D7">
-        <v>1.022571713937644</v>
+        <v>1.003774678303074</v>
       </c>
       <c r="E7">
-        <v>1.021796411469894</v>
+        <v>1.002818115917247</v>
       </c>
       <c r="F7">
-        <v>1.032546575295442</v>
+        <v>1.006194832142685</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.029602547330743</v>
+        <v>1.041232836579876</v>
       </c>
       <c r="J7">
-        <v>1.025482960443148</v>
+        <v>1.015827960970211</v>
       </c>
       <c r="K7">
-        <v>1.025089417412197</v>
+        <v>1.013824772541383</v>
       </c>
       <c r="L7">
-        <v>1.024316132627124</v>
+        <v>1.01287965726718</v>
       </c>
       <c r="M7">
-        <v>1.035038611202894</v>
+        <v>1.016216085040476</v>
       </c>
       <c r="N7">
-        <v>1.01257469413765</v>
+        <v>1.009278297544509</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.019776515428744</v>
+        <v>0.9912002208276315</v>
       </c>
       <c r="D8">
-        <v>1.021634142336088</v>
+        <v>0.9996950536179817</v>
       </c>
       <c r="E8">
-        <v>1.020863926059805</v>
+        <v>0.9987789459983079</v>
       </c>
       <c r="F8">
-        <v>1.031138045372497</v>
+        <v>1.000032413844085</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029474742222185</v>
+        <v>1.040254342528291</v>
       </c>
       <c r="J8">
-        <v>1.024856544558189</v>
+        <v>1.013066802289482</v>
       </c>
       <c r="K8">
-        <v>1.02440641693228</v>
+        <v>1.010879157180862</v>
       </c>
       <c r="L8">
-        <v>1.023638421013014</v>
+        <v>1.009975482679741</v>
       </c>
       <c r="M8">
-        <v>1.033883218726876</v>
+        <v>1.011211946081237</v>
       </c>
       <c r="N8">
-        <v>1.01236567327712</v>
+        <v>1.008349535072593</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.017836458663807</v>
+        <v>0.9817601379707929</v>
       </c>
       <c r="D9">
-        <v>1.019988046289175</v>
+        <v>0.992241495682479</v>
       </c>
       <c r="E9">
-        <v>1.019227284317939</v>
+        <v>0.9914050091876452</v>
       </c>
       <c r="F9">
-        <v>1.028660917661355</v>
+        <v>0.9887003670106504</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029239216401485</v>
+        <v>1.038366601756114</v>
       </c>
       <c r="J9">
-        <v>1.023751872947269</v>
+        <v>1.007973852534114</v>
       </c>
       <c r="K9">
-        <v>1.023203757369157</v>
+        <v>1.005461716035061</v>
       </c>
       <c r="L9">
-        <v>1.022445565504003</v>
+        <v>1.004639090536334</v>
       </c>
       <c r="M9">
-        <v>1.031847623816531</v>
+        <v>1.001979472449696</v>
       </c>
       <c r="N9">
-        <v>1.011996743917428</v>
+        <v>1.006635185940459</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.01654586848018</v>
+        <v>0.9751785360546796</v>
       </c>
       <c r="D10">
-        <v>1.018894797412809</v>
+        <v>0.9870778908817381</v>
       </c>
       <c r="E10">
-        <v>1.01814066992757</v>
+        <v>0.9863005907135164</v>
       </c>
       <c r="F10">
-        <v>1.027012833600084</v>
+        <v>0.9807928577835997</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029075295992941</v>
+        <v>1.036992400714958</v>
       </c>
       <c r="J10">
-        <v>1.023014922111244</v>
+        <v>1.00441278479746</v>
       </c>
       <c r="K10">
-        <v>1.022402645143613</v>
+        <v>1.00168444450616</v>
       </c>
       <c r="L10">
-        <v>1.021651315319635</v>
+        <v>1.000921677360529</v>
       </c>
       <c r="M10">
-        <v>1.030490852594618</v>
+        <v>0.9955177843038502</v>
       </c>
       <c r="N10">
-        <v>1.011750406958414</v>
+        <v>1.005435802464546</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.015987705842455</v>
+        <v>0.9722539983029788</v>
       </c>
       <c r="D11">
-        <v>1.018422413106312</v>
+        <v>0.9847918803339761</v>
       </c>
       <c r="E11">
-        <v>1.017671237300681</v>
+        <v>0.9840417790514873</v>
       </c>
       <c r="F11">
-        <v>1.026299996300818</v>
+        <v>0.977276739085545</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02900268624977</v>
+        <v>1.036368515996829</v>
       </c>
       <c r="J11">
-        <v>1.022695708810437</v>
+        <v>1.002828397811391</v>
       </c>
       <c r="K11">
-        <v>1.022055926725105</v>
+        <v>1.000006413705499</v>
       </c>
       <c r="L11">
-        <v>1.021307645644763</v>
+        <v>0.9992710523089883</v>
       </c>
       <c r="M11">
-        <v>1.029903435844896</v>
+        <v>0.9926402939364494</v>
       </c>
       <c r="N11">
-        <v>1.011643654415615</v>
+        <v>1.004902047310028</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.015780481651771</v>
+        <v>0.9711559044111433</v>
       </c>
       <c r="D12">
-        <v>1.018247100390436</v>
+        <v>0.9839348606560343</v>
       </c>
       <c r="E12">
-        <v>1.017497032844703</v>
+        <v>0.9831951095727811</v>
       </c>
       <c r="F12">
-        <v>1.026035336845664</v>
+        <v>0.9759560848578666</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028975471235324</v>
+        <v>1.036132315165111</v>
       </c>
       <c r="J12">
-        <v>1.022577123546558</v>
+        <v>1.002233230340923</v>
       </c>
       <c r="K12">
-        <v>1.021927166598598</v>
+        <v>0.9993764541086599</v>
       </c>
       <c r="L12">
-        <v>1.021180029599739</v>
+        <v>0.9986515054515098</v>
       </c>
       <c r="M12">
-        <v>1.029685255065002</v>
+        <v>0.9915588952451263</v>
       </c>
       <c r="N12">
-        <v>1.011603989107354</v>
+        <v>1.004701528766524</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.015824927294046</v>
+        <v>0.9713919924332909</v>
       </c>
       <c r="D13">
-        <v>1.018284698665032</v>
+        <v>0.9841190575336602</v>
       </c>
       <c r="E13">
-        <v>1.017534392856111</v>
+        <v>0.9833770749146251</v>
       </c>
       <c r="F13">
-        <v>1.026092101751943</v>
+        <v>0.9762400438443217</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028981320004885</v>
+        <v>1.036183185128545</v>
       </c>
       <c r="J13">
-        <v>1.022602561159728</v>
+        <v>1.002361201695843</v>
       </c>
       <c r="K13">
-        <v>1.021954784862593</v>
+        <v>0.9995118889607597</v>
       </c>
       <c r="L13">
-        <v>1.021207401927393</v>
+        <v>0.9987846960279488</v>
       </c>
       <c r="M13">
-        <v>1.029732055028749</v>
+        <v>0.9917914382265385</v>
       </c>
       <c r="N13">
-        <v>1.011612498016937</v>
+        <v>1.004744644410755</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.015970574531979</v>
+        <v>0.9721634734855464</v>
       </c>
       <c r="D14">
-        <v>1.01840791859528</v>
+        <v>0.9847212020139726</v>
       </c>
       <c r="E14">
-        <v>1.017656834156402</v>
+        <v>0.9839719511684355</v>
       </c>
       <c r="F14">
-        <v>1.026278117014092</v>
+        <v>0.97716787611162</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029000441633281</v>
+        <v>1.036349083363971</v>
       </c>
       <c r="J14">
-        <v>1.022685906819858</v>
+        <v>1.002779338550899</v>
       </c>
       <c r="K14">
-        <v>1.022045282824577</v>
+        <v>0.9999544787209099</v>
       </c>
       <c r="L14">
-        <v>1.021297096076817</v>
+        <v>0.999219973232703</v>
       </c>
       <c r="M14">
-        <v>1.029885400704938</v>
+        <v>0.9925511653627902</v>
       </c>
       <c r="N14">
-        <v>1.011640375924753</v>
+        <v>1.004885519005588</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.016060326195001</v>
+        <v>0.9726372283107949</v>
       </c>
       <c r="D15">
-        <v>1.018483858632054</v>
+        <v>0.9850911459455953</v>
       </c>
       <c r="E15">
-        <v>1.017732296027673</v>
+        <v>0.9843374500312982</v>
       </c>
       <c r="F15">
-        <v>1.026392743088237</v>
+        <v>0.9777375840774004</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029012190713993</v>
+        <v>1.036450703463373</v>
       </c>
       <c r="J15">
-        <v>1.02273725684657</v>
+        <v>1.003036075787734</v>
       </c>
       <c r="K15">
-        <v>1.02210104515802</v>
+        <v>1.000226280911601</v>
       </c>
       <c r="L15">
-        <v>1.021352364697793</v>
+        <v>0.9994873010955143</v>
       </c>
       <c r="M15">
-        <v>1.029979883645826</v>
+        <v>0.9930175732953944</v>
       </c>
       <c r="N15">
-        <v>1.011657550758497</v>
+        <v>1.004972014402686</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.016582926161054</v>
+        <v>0.9753710068663107</v>
       </c>
       <c r="D16">
-        <v>1.018926169207082</v>
+        <v>0.9872285192375806</v>
       </c>
       <c r="E16">
-        <v>1.018171847492733</v>
+        <v>0.9864494480119491</v>
       </c>
       <c r="F16">
-        <v>1.027060159057808</v>
+        <v>0.9810242055557499</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029080080542206</v>
+        <v>1.03703318735809</v>
       </c>
       <c r="J16">
-        <v>1.023036105050227</v>
+        <v>1.004517017889219</v>
       </c>
       <c r="K16">
-        <v>1.022425659356819</v>
+        <v>1.001794891478195</v>
       </c>
       <c r="L16">
-        <v>1.021674128829969</v>
+        <v>1.001030337635375</v>
       </c>
       <c r="M16">
-        <v>1.030529839141399</v>
+        <v>0.9957070260526885</v>
       </c>
       <c r="N16">
-        <v>1.01175748997501</v>
+        <v>1.005470914580335</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.016910920054279</v>
+        <v>0.9770654517330143</v>
       </c>
       <c r="D17">
-        <v>1.019203887757633</v>
+        <v>0.9885555661240502</v>
       </c>
       <c r="E17">
-        <v>1.018447856465593</v>
+        <v>0.9877610059247979</v>
       </c>
       <c r="F17">
-        <v>1.027479024575189</v>
+        <v>0.9830606260528658</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029122229717063</v>
+        <v>1.037390753064354</v>
       </c>
       <c r="J17">
-        <v>1.023223536303456</v>
+        <v>1.005434422669358</v>
       </c>
       <c r="K17">
-        <v>1.02262932723283</v>
+        <v>1.002767278070221</v>
       </c>
       <c r="L17">
-        <v>1.021876029672101</v>
+        <v>1.001987086953172</v>
       </c>
       <c r="M17">
-        <v>1.030874832119586</v>
+        <v>0.9973723290497546</v>
       </c>
       <c r="N17">
-        <v>1.011820156200225</v>
+        <v>1.00577993889094</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.017102298032703</v>
+        <v>0.9780466297072627</v>
       </c>
       <c r="D18">
-        <v>1.019365972632215</v>
+        <v>0.9893247983008607</v>
       </c>
       <c r="E18">
-        <v>1.018608951784113</v>
+        <v>0.9885213543982948</v>
       </c>
       <c r="F18">
-        <v>1.027723418299913</v>
+        <v>0.9842396027830662</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029146657201864</v>
+        <v>1.037596540927449</v>
       </c>
       <c r="J18">
-        <v>1.023332851217948</v>
+        <v>1.005965456322632</v>
       </c>
       <c r="K18">
-        <v>1.022748139431337</v>
+        <v>1.003330379484278</v>
       </c>
       <c r="L18">
-        <v>1.021993818660379</v>
+        <v>1.002541210164713</v>
       </c>
       <c r="M18">
-        <v>1.03107606778565</v>
+        <v>0.9983360420995872</v>
       </c>
       <c r="N18">
-        <v>1.011856699925974</v>
+        <v>1.005958803337689</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.017167563907919</v>
+        <v>0.9783799878779819</v>
       </c>
       <c r="D19">
-        <v>1.019421255676668</v>
+        <v>0.9895862810368472</v>
       </c>
       <c r="E19">
-        <v>1.018663898705973</v>
+        <v>0.9887798332609504</v>
       </c>
       <c r="F19">
-        <v>1.027806763206029</v>
+        <v>0.9846401277486188</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029154959626197</v>
+        <v>1.037666242484383</v>
       </c>
       <c r="J19">
-        <v>1.023370122953334</v>
+        <v>1.006145842498357</v>
       </c>
       <c r="K19">
-        <v>1.022788654026526</v>
+        <v>1.003521699706217</v>
       </c>
       <c r="L19">
-        <v>1.02203398563422</v>
+        <v>1.002729492983074</v>
       </c>
       <c r="M19">
-        <v>1.031144685126663</v>
+        <v>0.9986633673383624</v>
       </c>
       <c r="N19">
-        <v>1.011869158950812</v>
+        <v>1.006019559420598</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.016875722712424</v>
+        <v>0.976884398769909</v>
       </c>
       <c r="D20">
-        <v>1.019174081208304</v>
+        <v>0.9884136868022413</v>
       </c>
       <c r="E20">
-        <v>1.018418232550313</v>
+        <v>0.9876207727509976</v>
       </c>
       <c r="F20">
-        <v>1.027434076345193</v>
+        <v>0.9828430564434502</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029117723787882</v>
+        <v>1.037352677493874</v>
       </c>
       <c r="J20">
-        <v>1.023203427788567</v>
+        <v>1.005336417094989</v>
       </c>
       <c r="K20">
-        <v>1.022607473915627</v>
+        <v>1.002663373729122</v>
       </c>
       <c r="L20">
-        <v>1.021854365168115</v>
+        <v>1.001884845510144</v>
       </c>
       <c r="M20">
-        <v>1.030837816897803</v>
+        <v>0.9971944513612615</v>
       </c>
       <c r="N20">
-        <v>1.011813433575598</v>
+        <v>1.005746927331965</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.015927682216371</v>
+        <v>0.9719366218076713</v>
       </c>
       <c r="D21">
-        <v>1.018371629191926</v>
+        <v>0.9845441063873125</v>
       </c>
       <c r="E21">
-        <v>1.017620773712202</v>
+        <v>0.983796988930857</v>
       </c>
       <c r="F21">
-        <v>1.026223336835322</v>
+        <v>0.9768950624435783</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02899481753604</v>
+        <v>1.036300354723295</v>
       </c>
       <c r="J21">
-        <v>1.022661364011875</v>
+        <v>1.002656393754132</v>
       </c>
       <c r="K21">
-        <v>1.022018632688159</v>
+        <v>0.9998243334300383</v>
       </c>
       <c r="L21">
-        <v>1.021270682321709</v>
+        <v>0.9990919747933907</v>
       </c>
       <c r="M21">
-        <v>1.029840243888728</v>
+        <v>0.9923277968710287</v>
       </c>
       <c r="N21">
-        <v>1.01163216692193</v>
+        <v>1.004844098056763</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.015332203893727</v>
+        <v>0.9687572311753339</v>
       </c>
       <c r="D22">
-        <v>1.017867975127725</v>
+        <v>0.9820652823855841</v>
       </c>
       <c r="E22">
-        <v>1.017120327770418</v>
+        <v>0.981348396228253</v>
       </c>
       <c r="F22">
-        <v>1.02546279184885</v>
+        <v>0.9730703645642389</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028916127028716</v>
+        <v>1.035612830376021</v>
       </c>
       <c r="J22">
-        <v>1.022320459425085</v>
+        <v>1.000932696246813</v>
       </c>
       <c r="K22">
-        <v>1.021648558946075</v>
+        <v>0.9980006032355818</v>
       </c>
       <c r="L22">
-        <v>1.020903919221743</v>
+        <v>0.9972986267594596</v>
       </c>
       <c r="M22">
-        <v>1.029213099723413</v>
+        <v>0.9891948688307945</v>
       </c>
       <c r="N22">
-        <v>1.011518124334923</v>
+        <v>1.004263338465431</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.015647821605052</v>
+        <v>0.9704493831833025</v>
       </c>
       <c r="D23">
-        <v>1.018134887769414</v>
+        <v>0.9833838279170034</v>
       </c>
       <c r="E23">
-        <v>1.017385533205783</v>
+        <v>0.9826507753448422</v>
       </c>
       <c r="F23">
-        <v>1.025865904999657</v>
+        <v>0.975106234313906</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028957976251964</v>
+        <v>1.035979799000013</v>
       </c>
       <c r="J23">
-        <v>1.022501187329482</v>
+        <v>1.001850224535206</v>
       </c>
       <c r="K23">
-        <v>1.021844727023283</v>
+        <v>0.9989711673110148</v>
       </c>
       <c r="L23">
-        <v>1.021098325876821</v>
+        <v>0.9982529529659147</v>
       </c>
       <c r="M23">
-        <v>1.02954555384244</v>
+        <v>0.9908628381150113</v>
       </c>
       <c r="N23">
-        <v>1.011578587254647</v>
+        <v>1.004572485742605</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.016891626676421</v>
+        <v>0.9769662309050501</v>
       </c>
       <c r="D24">
-        <v>1.019187549207456</v>
+        <v>0.9884778108048086</v>
       </c>
       <c r="E24">
-        <v>1.018431618001486</v>
+        <v>0.9876841524651095</v>
       </c>
       <c r="F24">
-        <v>1.027454386279009</v>
+        <v>0.982941394024879</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029119760309767</v>
+        <v>1.037369890768877</v>
       </c>
       <c r="J24">
-        <v>1.023212513993649</v>
+        <v>1.005380714162007</v>
       </c>
       <c r="K24">
-        <v>1.022617348439177</v>
+        <v>1.002710336201432</v>
       </c>
       <c r="L24">
-        <v>1.021864154352019</v>
+        <v>1.001931056149956</v>
       </c>
       <c r="M24">
-        <v>1.030854542461306</v>
+        <v>0.9972748501658824</v>
       </c>
       <c r="N24">
-        <v>1.011816471266368</v>
+        <v>1.005761848105455</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.01833752583675</v>
+        <v>0.9842494160920179</v>
       </c>
       <c r="D25">
-        <v>1.020412877516959</v>
+        <v>0.9942014400805025</v>
       </c>
       <c r="E25">
-        <v>1.019649613001743</v>
+        <v>0.9933433323926909</v>
       </c>
       <c r="F25">
-        <v>1.029300730664936</v>
+        <v>0.9916894761061261</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029301324646869</v>
+        <v>1.038874576406347</v>
       </c>
       <c r="J25">
-        <v>1.024037550558034</v>
+        <v>1.009318730707254</v>
       </c>
       <c r="K25">
-        <v>1.023514562546928</v>
+        <v>1.006890443132157</v>
       </c>
       <c r="L25">
-        <v>1.022753778661254</v>
+        <v>1.006045871025579</v>
       </c>
       <c r="M25">
-        <v>1.03237382637433</v>
+        <v>1.00441818690133</v>
       </c>
       <c r="N25">
-        <v>1.012092190495369</v>
+        <v>1.00708801799545</v>
       </c>
     </row>
   </sheetData>
